--- a/template.xlsx
+++ b/template.xlsx
@@ -997,7 +997,7 @@
   <dimension ref="A1:AL100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:AG1"/>
+      <selection activeCell="W26" sqref="W25:W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
